--- a/biology/Botanique/Trebbiano_giallo/Trebbiano_giallo.xlsx
+++ b/biology/Botanique/Trebbiano_giallo/Trebbiano_giallo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le trebbiano giallo est un cépage italien de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est classé cépage d'appoint en DOC Bianco Capena, Castelli Romani, Cerveteri, Colli della Sabina, Colli Etruschi Viterbesi, Colli Lanuvini, Controguerra, Est! Est!! Est!!! di Montefiascone, Tarquinia et Vin Santo di Montepulciano. En 1998, il couvrait 4.774 ha.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert blanchâtre à liserè carminé.
 Jeunes feuilles vert bronzé à dessous cotonneux blanc.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive : 35 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrio-conique et parfois ailée. Le cépage est de bonne vigueur et productif préférant une taille de moyenne expansion. 
 Les vins sont de couleur jaune, agréable et délicate.
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trebbiano giallo est connu sous les noms de cori, greco, greco giallo, rosciola, rossetta, rossetto, rossola, sezze, tostarello, trebbiano dei Castelli, trebbiano giallo di Velletri,
 </t>
